--- a/Spreadsheet Applications/Using Functions, Creating Tables, and Managing Large Workbooks/Weekly Sales.xlsx
+++ b/Spreadsheet Applications/Using Functions, Creating Tables, and Managing Large Workbooks/Weekly Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Using Functions^J Creating Tables^J and Managing Large Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="14_{369BBBAF-A234-4FEE-8180-BB34FB65B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066EAF03-16FF-4E78-A8EC-C56120A77393}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="14_{369BBBAF-A234-4FEE-8180-BB34FB65B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7808A102-D194-4BEA-9398-99844D41A20C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Online Sales" sheetId="1" r:id="rId1"/>
@@ -228,13 +228,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -526,7 +526,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -543,26 +543,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,6 +821,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -832,7 +835,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -848,26 +851,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1125,6 +1128,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1136,7 +1142,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1150,22 +1156,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1217,10 +1223,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="5">
         <f>SUM(C5:C6)</f>
         <v>76418.140000000014</v>
@@ -1242,9 +1248,28 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{ADE53FB2-D708-44FE-BBE3-A48C24169A7E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C5:D5</xm:f>
+              <xm:sqref>B5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{547D59B0-E596-4D02-955F-14BBA1D5403B}">
           <x14:colorSeries theme="7"/>
           <x14:colorNegative theme="8"/>
@@ -1261,22 +1286,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{ADE53FB2-D708-44FE-BBE3-A48C24169A7E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!C5:D5</xm:f>
-              <xm:sqref>B5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
